--- a/data/trans_dic/P70A_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A_R_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1853011715922852</v>
+        <v>0.1610509262478139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04114185041980948</v>
+        <v>0.03856943968746221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.13813652416171</v>
+        <v>0.1484023210944306</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6126213748751295</v>
+        <v>0.6258702574716372</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3523452316454523</v>
+        <v>0.3182701118867267</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4382571084141121</v>
+        <v>0.4583888126092595</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2210800996702744</v>
+        <v>0.2288720859392937</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2154386820125561</v>
+        <v>0.2164636596631162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.23560124701639</v>
+        <v>0.2329218697906954</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3456953172502543</v>
+        <v>0.3395882226131968</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.316378277043483</v>
+        <v>0.3138982652790201</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3152057371099304</v>
+        <v>0.3096399636639294</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09284274327919169</v>
+        <v>0.08670656139784852</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.117587735710796</v>
+        <v>0.1214068914484876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1174828173904123</v>
+        <v>0.1208324138052573</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2322587803955209</v>
+        <v>0.2251887877688251</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2413430006539681</v>
+        <v>0.24223167234128</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2083023248283978</v>
+        <v>0.2207979124597036</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.2466398175657754</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2257410315937186</v>
+        <v>0.2257410315937187</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2364176064449748</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.199348407097332</v>
+        <v>0.2017716208488792</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.192085842342055</v>
+        <v>0.1866698013729973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2069940637319654</v>
+        <v>0.2096597909265288</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2934600790624768</v>
+        <v>0.294844461021269</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.268104816208424</v>
+        <v>0.2620883208318368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2675287061688921</v>
+        <v>0.2697942952376057</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4197</v>
+        <v>3647</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5646</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13875</v>
+        <v>14175</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6422</v>
+        <v>5801</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17914</v>
+        <v>18737</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>61249</v>
+        <v>63408</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>51404</v>
+        <v>51649</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>121488</v>
+        <v>120106</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>95774</v>
+        <v>94082</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>75489</v>
+        <v>74897</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162536</v>
+        <v>159666</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11162</v>
+        <v>10424</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17075</v>
+        <v>17630</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31184</v>
+        <v>32073</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27922</v>
+        <v>27072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35046</v>
+        <v>35175</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>55291</v>
+        <v>58607</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83709</v>
+        <v>84727</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>77227</v>
+        <v>75049</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>170141</v>
+        <v>172332</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>123228</v>
+        <v>123810</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>107790</v>
+        <v>105371</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>219898</v>
+        <v>221760</v>
       </c>
     </row>
     <row r="20">
